--- a/biology/Botanique/Conservatoire_botanique_national_sud-atlantique/Conservatoire_botanique_national_sud-atlantique.xlsx
+++ b/biology/Botanique/Conservatoire_botanique_national_sud-atlantique/Conservatoire_botanique_national_sud-atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire botanique national Sud-Atlantique (CBNSA) est un établissement public (syndicat mixte) créé le 18 mai 2006 par arrêté préfectoral. Le Conservatoire a été agréé par le Ministère de l'Écologie en 2008, pour les ex-régions Aquitaine (zone pyrénéenne exclue) et Poitou-Charentes ; il a rejoint ainsi le réseau des Conservatoires botaniques nationaux et adhère à la Fédération des CBN.
 Quinze collectivités et établissements publics sont actuellement membres : Conseil régional de Nouvelle-Aquitaine, Conseils départementaux de Charente-Maritime, Gironde, Landes et Pyrénées-Atlantiques, Métropole de Bordeaux, Communauté urbaine du Grand Poitiers, communautés d’agglomération de La Rochelle et du Pays basque, Communauté de communes de Montesquieu, ainsi que les villes d'Audenge, Bordeaux, Lanton, Mignaloux-Beauvoir et Saint-Jean-de-Luz.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, une étude de faisabilité et une « Mission de préfiguration du CBN Aquitaine Poitou-Charentes » ont été présentées au Ministère chargé de l’Écologie (via la DIREN Aquitaine).   
 En 2006, le Conservatoire botanique Sud-Atlantique est créé sous la forme d'un syndicat mixte associant plusieurs collectivités territoriales pour la « prise en compte de la biodiversité végétale sauvage ». 
@@ -550,7 +564,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme les autres conservatoires botaniques, le Conservatoire botanique national Sud-Atlantique 
 assure une mission de conservation du patrimoine naturel floristique pour le sud ouest de la métropole française ;
